--- a/設計書/基本設計/ログイン/ログイン.xlsx
+++ b/設計書/基本設計/ログイン/ログイン.xlsx
@@ -4,20 +4,344 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="画面" sheetId="1" r:id="rId1"/>
     <sheet name="処理" sheetId="2" r:id="rId2"/>
-    <sheet name="アクション" sheetId="3" r:id="rId3"/>
+    <sheet name="フォーム概要" sheetId="3" r:id="rId3"/>
+    <sheet name="利用データベース" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+  <si>
+    <t>ログイン処理</t>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理概要</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインボタン押下時</t>
+    <rPh sb="7" eb="9">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インプットタグの値(ユーザー名・パスワードが正しい時)</t>
+    <rPh sb="8" eb="9">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー名およびパスワードをデータベースに格納されている値と照合し、</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ショウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>両方ともに間違いない事が確認できた場合には、セッションにユーザー情報を</t>
+    <rPh sb="0" eb="2">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>マチガ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>格納し、タスク画面へ遷移させる。</t>
+    <rPh sb="0" eb="2">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インプットタグの値(ユーザー名またはパスワードが間違っていた時)</t>
+    <rPh sb="8" eb="9">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>マチガ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>間違っていた場合には、ログイン画面に遷移し、エラーメッセージを表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>マチガ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録リンク押下時</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録画面へ遷移する</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォーム値詳細</t>
+    <rPh sb="4" eb="5">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目名</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ型</t>
+    <rPh sb="3" eb="4">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェック概要</t>
+    <rPh sb="4" eb="6">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字列型</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値に何も指定されてない場合、値がブランクの場合は異常値として扱う。</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>アツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベース名</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>app_user</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>READ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・パスワードの照合</t>
+    <rPh sb="7" eb="9">
+      <t>ショウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　パスワードの照合は、入力されたパスワードを暗号化し、app_userマスタの</t>
+    <rPh sb="7" eb="9">
+      <t>ショウゴウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>アンゴウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　パスワードの値と突合わせすることで照合する。</t>
+    <rPh sb="7" eb="8">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,6 +356,22 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -41,7 +381,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -49,12 +389,148 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -70,6 +546,336 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="16" name="グループ化 15"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="66675" y="66675"/>
+          <a:ext cx="10058400" cy="6286500"/>
+          <a:chOff x="66675" y="66675"/>
+          <a:chExt cx="10058400" cy="6286500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="図 1"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="66675" y="66675"/>
+            <a:ext cx="10058400" cy="6286500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="5962649" y="571500"/>
+            <a:ext cx="1080000" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="10" name="直線矢印コネクタ 9"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="6934200" y="3152775"/>
+            <a:ext cx="1080000" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="6581775" y="5610225"/>
+            <a:ext cx="1080000" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7019925" y="342900"/>
+            <a:ext cx="1571625" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>ロゴ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8010525" y="2914650"/>
+            <a:ext cx="1638300" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>(1)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+              <a:t>ログイン入力</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>フォーム</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7658100" y="5372100"/>
+            <a:ext cx="1571625" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>(2) </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>ユーザー登録リンク</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -361,23 +1167,513 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:AQ23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="44" width="2.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:43" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="2"/>
+    </row>
+    <row r="5" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="6"/>
+      <c r="AQ5" s="6"/>
+    </row>
+    <row r="6" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ6" s="9"/>
+    </row>
+    <row r="7" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="9"/>
+      <c r="AQ7" s="9"/>
+    </row>
+    <row r="8" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="9"/>
+      <c r="Q8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ8" s="9"/>
+    </row>
+    <row r="9" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="9"/>
+      <c r="Q9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ9" s="9"/>
+    </row>
+    <row r="10" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="9"/>
+      <c r="Q10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ10" s="9"/>
+    </row>
+    <row r="11" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="9"/>
+      <c r="AQ11" s="9"/>
+    </row>
+    <row r="12" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="9"/>
+      <c r="R12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ12" s="9"/>
+    </row>
+    <row r="13" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="9"/>
+      <c r="R13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ13" s="9"/>
+    </row>
+    <row r="14" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="9"/>
+      <c r="R14" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ14" s="9"/>
+    </row>
+    <row r="15" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="9"/>
+      <c r="AQ15" s="9"/>
+    </row>
+    <row r="16" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ16" s="9"/>
+    </row>
+    <row r="17" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="9"/>
+      <c r="AQ17" s="9"/>
+    </row>
+    <row r="18" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="9"/>
+      <c r="Q18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ18" s="9"/>
+    </row>
+    <row r="19" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="9"/>
+      <c r="Q19" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ19" s="9"/>
+    </row>
+    <row r="20" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="9"/>
+      <c r="AQ20" s="12"/>
+    </row>
+    <row r="21" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="5"/>
+      <c r="AO21" s="5"/>
+      <c r="AP21" s="5"/>
+      <c r="AQ21" s="6"/>
+    </row>
+    <row r="22" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="8"/>
+      <c r="AL22" s="8"/>
+      <c r="AM22" s="8"/>
+      <c r="AN22" s="8"/>
+      <c r="AO22" s="8"/>
+      <c r="AP22" s="8"/>
+      <c r="AQ22" s="9"/>
+    </row>
+    <row r="23" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="11"/>
+      <c r="AG23" s="11"/>
+      <c r="AH23" s="11"/>
+      <c r="AI23" s="11"/>
+      <c r="AJ23" s="11"/>
+      <c r="AK23" s="11"/>
+      <c r="AL23" s="11"/>
+      <c r="AM23" s="11"/>
+      <c r="AN23" s="11"/>
+      <c r="AO23" s="11"/>
+      <c r="AP23" s="11"/>
+      <c r="AQ23" s="12"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -386,12 +1682,944 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:AQ25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="44" width="2.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:43" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:43" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B4" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="2"/>
+    </row>
+    <row r="7" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="6"/>
+      <c r="AQ7" s="6"/>
+    </row>
+    <row r="8" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ8" s="9"/>
+    </row>
+    <row r="9" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="11"/>
+      <c r="AN9" s="11"/>
+      <c r="AO9" s="11"/>
+      <c r="AP9" s="11"/>
+      <c r="AQ9" s="12"/>
+    </row>
+    <row r="10" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="6"/>
+      <c r="AQ10" s="6"/>
+    </row>
+    <row r="11" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ11" s="9"/>
+    </row>
+    <row r="12" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="11"/>
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="11"/>
+      <c r="AN12" s="11"/>
+      <c r="AO12" s="11"/>
+      <c r="AP12" s="11"/>
+      <c r="AQ12" s="12"/>
+    </row>
+    <row r="13" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5"/>
+      <c r="AN13" s="5"/>
+      <c r="AO13" s="5"/>
+      <c r="AP13" s="5"/>
+      <c r="AQ13" s="5"/>
+    </row>
+    <row r="14" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="8"/>
+      <c r="AM14" s="8"/>
+      <c r="AN14" s="8"/>
+      <c r="AO14" s="8"/>
+      <c r="AP14" s="8"/>
+      <c r="AQ14" s="8"/>
+    </row>
+    <row r="15" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="8"/>
+      <c r="AK15" s="8"/>
+      <c r="AL15" s="8"/>
+      <c r="AM15" s="8"/>
+      <c r="AN15" s="8"/>
+      <c r="AO15" s="8"/>
+      <c r="AP15" s="8"/>
+      <c r="AQ15" s="8"/>
+    </row>
+    <row r="16" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="8"/>
+      <c r="AL16" s="8"/>
+      <c r="AM16" s="8"/>
+      <c r="AN16" s="8"/>
+      <c r="AO16" s="8"/>
+      <c r="AP16" s="8"/>
+      <c r="AQ16" s="8"/>
+    </row>
+    <row r="17" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="8"/>
+      <c r="AK17" s="8"/>
+      <c r="AL17" s="8"/>
+      <c r="AM17" s="8"/>
+      <c r="AN17" s="8"/>
+      <c r="AO17" s="8"/>
+      <c r="AP17" s="8"/>
+      <c r="AQ17" s="8"/>
+    </row>
+    <row r="18" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="8"/>
+      <c r="AL18" s="8"/>
+      <c r="AM18" s="8"/>
+      <c r="AN18" s="8"/>
+      <c r="AO18" s="8"/>
+      <c r="AP18" s="8"/>
+      <c r="AQ18" s="8"/>
+    </row>
+    <row r="19" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="8"/>
+      <c r="AL19" s="8"/>
+      <c r="AM19" s="8"/>
+      <c r="AN19" s="8"/>
+      <c r="AO19" s="8"/>
+      <c r="AP19" s="8"/>
+      <c r="AQ19" s="8"/>
+    </row>
+    <row r="20" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="8"/>
+      <c r="AL20" s="8"/>
+      <c r="AM20" s="8"/>
+      <c r="AN20" s="8"/>
+      <c r="AO20" s="8"/>
+      <c r="AP20" s="8"/>
+      <c r="AQ20" s="8"/>
+    </row>
+    <row r="21" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="8"/>
+      <c r="AL21" s="8"/>
+      <c r="AM21" s="8"/>
+      <c r="AN21" s="8"/>
+      <c r="AO21" s="8"/>
+      <c r="AP21" s="8"/>
+      <c r="AQ21" s="8"/>
+    </row>
+    <row r="22" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="8"/>
+      <c r="AL22" s="8"/>
+      <c r="AM22" s="8"/>
+      <c r="AN22" s="8"/>
+      <c r="AO22" s="8"/>
+      <c r="AP22" s="8"/>
+      <c r="AQ22" s="8"/>
+    </row>
+    <row r="23" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="8"/>
+      <c r="AL23" s="8"/>
+      <c r="AM23" s="8"/>
+      <c r="AN23" s="8"/>
+      <c r="AO23" s="8"/>
+      <c r="AP23" s="8"/>
+      <c r="AQ23" s="8"/>
+    </row>
+    <row r="24" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
+      <c r="AL24" s="8"/>
+      <c r="AM24" s="8"/>
+      <c r="AN24" s="8"/>
+      <c r="AO24" s="8"/>
+      <c r="AP24" s="8"/>
+      <c r="AQ24" s="8"/>
+    </row>
+    <row r="25" spans="2:43" x14ac:dyDescent="0.15">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="8"/>
+      <c r="AL25" s="8"/>
+      <c r="AM25" s="8"/>
+      <c r="AN25" s="8"/>
+      <c r="AO25" s="8"/>
+      <c r="AP25" s="8"/>
+      <c r="AQ25" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="26" width="2.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/設計書/基本設計/ログイン/ログイン.xlsx
+++ b/設計書/基本設計/ログイン/ログイン.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="画面" sheetId="1" r:id="rId1"/>
-    <sheet name="処理" sheetId="2" r:id="rId2"/>
+    <sheet name="処理概要" sheetId="2" r:id="rId2"/>
     <sheet name="フォーム概要" sheetId="3" r:id="rId3"/>
     <sheet name="利用データベース" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>ログイン処理</t>
     <rPh sb="4" eb="6">
@@ -333,6 +333,79 @@
     </rPh>
     <rPh sb="18" eb="20">
       <t>ショウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン処理</t>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ログインフォーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ユーザー名とパスワードの入力欄があり</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ログインボタンを押下するとログイン処理</t>
+    <rPh sb="9" eb="11">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> が実行される</t>
+    <rPh sb="2" eb="4">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ユーザー登録リンク</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 押下されるとユーザー登録フォームへ</t>
+    <rPh sb="1" eb="3">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 遷移する</t>
+    <rPh sb="1" eb="3">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -341,7 +414,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,6 +440,13 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
@@ -510,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -531,6 +611,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -552,16 +633,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -570,8 +651,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="66675" y="66675"/>
-          <a:ext cx="10058400" cy="6286500"/>
+          <a:off x="266700" y="685800"/>
+          <a:ext cx="9572625" cy="6286500"/>
           <a:chOff x="66675" y="66675"/>
           <a:chExt cx="10058400" cy="6286500"/>
         </a:xfrm>
@@ -1165,15 +1246,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:AZ12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="56" width="2.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:52" ht="24" x14ac:dyDescent="0.25">
+      <c r="B2" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:52" x14ac:dyDescent="0.15">
+      <c r="AY5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:52" x14ac:dyDescent="0.15">
+      <c r="AZ6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:52" x14ac:dyDescent="0.15">
+      <c r="AZ7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:52" x14ac:dyDescent="0.15">
+      <c r="AZ8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="2:52" x14ac:dyDescent="0.15">
+      <c r="AY10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:52" x14ac:dyDescent="0.15">
+      <c r="AZ11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:52" x14ac:dyDescent="0.15">
+      <c r="AZ12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1181,7 +1313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AQ23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
